--- a/file/datamonhocphan.xlsx
+++ b/file/datamonhocphan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7158FC2C-E070-4965-8DCA-CD712D146059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0344F5A-4DCB-4261-ADE0-8E8736D52F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,23 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Mã khoa</t>
   </si>
   <si>
-    <t>Lý luận cơ bản</t>
-  </si>
-  <si>
-    <t>Anh văn</t>
-  </si>
-  <si>
-    <t>Cơ khí xăng dầu</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>Mã môn học phần</t>
   </si>
   <si>
@@ -66,31 +54,31 @@
     <t>Có</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>MHP01</t>
-  </si>
-  <si>
-    <t>MHP02</t>
-  </si>
-  <si>
-    <t>MHP03</t>
-  </si>
-  <si>
-    <t>MHP04</t>
-  </si>
-  <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>TEST4</t>
+    <t>MHP27</t>
+  </si>
+  <si>
+    <t>MHP28</t>
+  </si>
+  <si>
+    <t>MHP29</t>
+  </si>
+  <si>
+    <t>Kỹ năng làm việc nhóm</t>
+  </si>
+  <si>
+    <t>Hệ thống máy tính</t>
+  </si>
+  <si>
+    <t>Giáo dục quốc phòng</t>
+  </si>
+  <si>
+    <t>Thực hành</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>CNTT</t>
   </si>
 </sst>
 </file>
@@ -418,13 +406,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -432,118 +422,91 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
